--- a/results/mnist/summary.xlsx
+++ b/results/mnist/summary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="840" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Target Set</t>
   </si>
@@ -72,20 +72,52 @@
     <t>KMM Recall</t>
   </si>
   <si>
-    <t>Adv Precision</t>
-  </si>
-  <si>
-    <t>Adv Recall</t>
+    <t>{0, 7}</t>
+  </si>
+  <si>
+    <t>Adv-Coll Accuracy</t>
+  </si>
+  <si>
+    <t>KMM Accuracy</t>
+  </si>
+  <si>
+    <t>Adv-Coll Precision</t>
+  </si>
+  <si>
+    <t>Adv-Coll Recall</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -108,14 +140,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -390,90 +433,317 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="3" max="4" width="13.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="1">
+        <v>0.93191489361702096</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.876</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.98119999999999996</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.73563218390804597</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.94920000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
+        <v>0.96888888888888902</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.872</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.98440000000000005</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.79503105590062095</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.95699999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <v>0.84989858012170405</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.61785714285714299</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.9264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.754</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.65818181818181798</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.93479999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>0.72205438066465299</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.95879999999999999</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.67413793103448305</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.94040000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>0.85287846481876295</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.96619999999999995</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.65845070422535201</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.748</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.93600000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>0.84069097888675604</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.876</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.69838420107719901</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.94420000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <v>0.89525691699604804</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.68651488616462297</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.94259999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.94520000000000004</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.53048780487804903</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.90800000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <v>0.315892740353172</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.78739999999999999</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.58957654723126995</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.92200000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.86545454545454603</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.96079999999999999</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.753164556962025</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>1</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.80035863717872102</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.89266666666666705</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.81168177240684802</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.537333333333333</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.82379999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -485,7 +755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:B13"/>
     </sheetView>
   </sheetViews>
